--- a/Professional/5-Background-Check/Residence.xlsx
+++ b/Professional/5-Background-Check/Residence.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scott\Documents\Folder\Professional\Background-Check\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scott\Documents\Folder\Professional\5-Background-Check\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BEAC9DF-A9F8-41A7-9121-6E8F1B0D5954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8135DC07-6A4C-41A1-BA56-2C3A60774DB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="14860" xr2:uid="{98AA0AC9-FD22-4151-8EB7-60659770E858}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="14860" activeTab="3" xr2:uid="{98AA0AC9-FD22-4151-8EB7-60659770E858}"/>
   </bookViews>
   <sheets>
     <sheet name="Residence" sheetId="1" r:id="rId1"/>
@@ -826,7 +826,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -845,6 +845,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1182,7 +1183,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC853E44-D22F-430D-82CC-9D46409085E1}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -1481,7 +1482,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2226,8 +2227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E53AC8D-F03E-49E9-9CD8-DB06141ED2F0}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2273,7 +2274,7 @@
       <c r="D2" t="s">
         <v>136</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="8" t="s">
         <v>137</v>
       </c>
       <c r="F2" t="s">
@@ -2293,7 +2294,7 @@
       <c r="D3" t="s">
         <v>142</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="8" t="s">
         <v>143</v>
       </c>
       <c r="F3" t="s">
@@ -2313,7 +2314,7 @@
       <c r="D4" t="s">
         <v>147</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="8" t="s">
         <v>148</v>
       </c>
       <c r="F4" t="s">
@@ -2321,6 +2322,11 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{FECC69DA-BDB9-41F4-B74D-A0E1184D2911}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{3B22BEE1-2099-4DE1-A63A-A155214C2D6C}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{C51BC468-B857-4E4B-BACA-71CDD03126F7}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2329,8 +2335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B168DE2-C6ED-4349-B008-90D09BAA4B96}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G6"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
